--- a/utils/K8s resource.xlsx
+++ b/utils/K8s resource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Workspaces\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B72ECD-BC92-4487-B631-0E807199AF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784673A9-CFD1-41B7-A191-2E77678DA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{218EBCD2-F002-495E-B742-B66DF84E7447}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>No.</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Memory</t>
   </si>
   <si>
-    <t>HPA CPU (%)</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -100,6 +97,18 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>MAX LIMIT</t>
+  </si>
+  <si>
+    <t>Catalog</t>
   </si>
 </sst>
 </file>
@@ -156,29 +165,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,325 +509,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8491E5C2-9CEF-4549-8C54-179312535692}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:H9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>256</v>
+      </c>
+      <c r="F3" s="5">
+        <v>512</v>
+      </c>
+      <c r="G3" s="5">
+        <v>256</v>
+      </c>
+      <c r="H3" s="5">
+        <v>512</v>
+      </c>
+      <c r="I3" s="6">
+        <f>D3*F3</f>
+        <v>2560</v>
+      </c>
+      <c r="J3" s="6">
+        <f>D3*H3</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>256</v>
+      </c>
+      <c r="F4" s="5">
+        <v>512</v>
+      </c>
+      <c r="G4" s="5">
+        <v>256</v>
+      </c>
+      <c r="H4" s="5">
+        <v>512</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I13" si="0">D4*F4</f>
+        <v>2560</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J13" si="1">D4*H4</f>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>256</v>
+      </c>
+      <c r="F5" s="5">
+        <v>512</v>
+      </c>
+      <c r="G5" s="5">
+        <v>256</v>
+      </c>
+      <c r="H5" s="5">
+        <v>512</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>256</v>
+      </c>
+      <c r="F6" s="5">
+        <v>512</v>
+      </c>
+      <c r="G6" s="5">
+        <v>256</v>
+      </c>
+      <c r="H6" s="5">
+        <v>512</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>256</v>
+      </c>
+      <c r="F7" s="5">
+        <v>512</v>
+      </c>
+      <c r="G7" s="5">
+        <v>256</v>
+      </c>
+      <c r="H7" s="5">
+        <v>512</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>256</v>
+      </c>
+      <c r="F8" s="5">
+        <v>512</v>
+      </c>
+      <c r="G8" s="5">
+        <v>256</v>
+      </c>
+      <c r="H8" s="5">
+        <v>512</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>256</v>
+      </c>
+      <c r="F9" s="5">
+        <v>512</v>
+      </c>
+      <c r="G9" s="5">
+        <v>256</v>
+      </c>
+      <c r="H9" s="5">
+        <v>512</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>256</v>
+      </c>
+      <c r="F10" s="5">
+        <v>512</v>
+      </c>
+      <c r="G10" s="5">
+        <v>256</v>
+      </c>
+      <c r="H10" s="5">
+        <v>512</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="5">
+        <v>256</v>
+      </c>
+      <c r="F11" s="5">
+        <v>512</v>
+      </c>
+      <c r="G11" s="5">
+        <v>256</v>
+      </c>
+      <c r="H11" s="5">
+        <v>512</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7">
-        <v>256</v>
-      </c>
-      <c r="F3" s="7">
-        <v>512</v>
-      </c>
-      <c r="G3" s="7">
-        <v>512</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I3" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>256</v>
+      </c>
+      <c r="F12" s="5">
+        <v>512</v>
+      </c>
+      <c r="G12" s="5">
+        <v>256</v>
+      </c>
+      <c r="H12" s="5">
+        <v>512</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>5</v>
-      </c>
-      <c r="E4" s="7">
-        <v>256</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1024</v>
-      </c>
-      <c r="G4" s="7">
-        <v>512</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2048</v>
-      </c>
-      <c r="I4" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="E5" s="7">
-        <v>256</v>
-      </c>
-      <c r="F5" s="7">
-        <v>512</v>
-      </c>
-      <c r="G5" s="7">
-        <v>512</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I5" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7">
-        <v>256</v>
-      </c>
-      <c r="F6" s="7">
-        <v>512</v>
-      </c>
-      <c r="G6" s="7">
-        <v>128</v>
-      </c>
-      <c r="H6" s="7">
-        <v>256</v>
-      </c>
-      <c r="I6" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>256</v>
-      </c>
-      <c r="F7" s="7">
-        <v>512</v>
-      </c>
-      <c r="G7" s="7">
-        <v>128</v>
-      </c>
-      <c r="H7" s="7">
-        <v>256</v>
-      </c>
-      <c r="I7" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7">
-        <v>256</v>
-      </c>
-      <c r="F8" s="7">
-        <v>512</v>
-      </c>
-      <c r="G8" s="7">
-        <v>512</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I8" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7">
-        <v>256</v>
-      </c>
-      <c r="F9" s="7">
-        <v>512</v>
-      </c>
-      <c r="G9" s="7">
-        <v>512</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I9" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7">
-        <v>256</v>
-      </c>
-      <c r="F10" s="7">
-        <v>512</v>
-      </c>
-      <c r="G10" s="7">
-        <v>128</v>
-      </c>
-      <c r="H10" s="7">
-        <v>256</v>
-      </c>
-      <c r="I10" s="7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="8">
-        <f>SUM(E3:E10)</f>
-        <v>2048</v>
-      </c>
-      <c r="F11" s="8">
-        <f>SUM(F3:F10)</f>
-        <v>4608</v>
-      </c>
-      <c r="G11" s="8">
-        <f>SUM(G3:G10)</f>
-        <v>2944</v>
-      </c>
-      <c r="H11" s="8">
-        <f>SUM(H3:H10)</f>
-        <v>6912</v>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>256</v>
+      </c>
+      <c r="F13" s="5">
+        <v>512</v>
+      </c>
+      <c r="G13" s="5">
+        <v>256</v>
+      </c>
+      <c r="H13" s="5">
+        <v>512</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="7">
+        <f>SUM(I3:I13)</f>
+        <v>28160</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUM(J3:J13)</f>
+        <v>28160</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B13">
+    <sortCondition ref="B3:B13"/>
+  </sortState>
   <mergeCells count="6">
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/utils/K8s resource.xlsx
+++ b/utils/K8s resource.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Workspaces\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784673A9-CFD1-41B7-A191-2E77678DA95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FF7F8-2467-4FD4-A219-7F6F646B9087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{218EBCD2-F002-495E-B742-B66DF84E7447}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>No.</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>QnA</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -102,13 +99,13 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Gateway</t>
-  </si>
-  <si>
     <t>MAX LIMIT</t>
   </si>
   <si>
     <t>Catalog</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -509,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8491E5C2-9CEF-4549-8C54-179312535692}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,7 +539,7 @@
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" s="8"/>
     </row>
@@ -588,32 +585,32 @@
         <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>256</v>
+        <v>600</v>
       </c>
       <c r="F3" s="5">
-        <v>512</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="5">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="H3" s="5">
-        <v>512</v>
+        <v>410</v>
       </c>
       <c r="I3" s="6">
-        <f>D3*F3</f>
-        <v>2560</v>
+        <f>F3*D3</f>
+        <v>5000</v>
       </c>
       <c r="J3" s="6">
-        <f>D3*H3</f>
-        <v>2560</v>
+        <f>H3*D3</f>
+        <v>2050</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
@@ -622,29 +619,29 @@
         <v>5</v>
       </c>
       <c r="E4" s="5">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="F4" s="5">
-        <v>512</v>
+        <v>150</v>
       </c>
       <c r="G4" s="5">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="H4" s="5">
-        <v>512</v>
+        <v>150</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ref="I4:I13" si="0">D4*F4</f>
-        <v>2560</v>
+        <f t="shared" ref="I4:I11" si="0">F4*D4</f>
+        <v>750</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J13" si="1">D4*H4</f>
-        <v>2560</v>
+        <f t="shared" ref="J4:J11" si="1">H4*D4</f>
+        <v>750</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -656,32 +653,32 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>256</v>
+        <v>500</v>
       </c>
       <c r="F5" s="5">
-        <v>512</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="5">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="H5" s="5">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>5000</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -690,29 +687,29 @@
         <v>5</v>
       </c>
       <c r="E6" s="5">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="G6" s="5">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="H6" s="5">
-        <v>512</v>
+        <v>150</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>500</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -724,29 +721,29 @@
         <v>5</v>
       </c>
       <c r="E7" s="5">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="G7" s="5">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5">
-        <v>512</v>
+        <v>110</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -758,32 +755,32 @@
         <v>5</v>
       </c>
       <c r="E8" s="5">
-        <v>256</v>
+        <v>500</v>
       </c>
       <c r="F8" s="5">
-        <v>512</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="5">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="H8" s="5">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
@@ -792,32 +789,32 @@
         <v>5</v>
       </c>
       <c r="E9" s="5">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="F9" s="5">
-        <v>512</v>
+        <v>100</v>
       </c>
       <c r="G9" s="5">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="H9" s="5">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>500</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
@@ -826,141 +823,85 @@
         <v>5</v>
       </c>
       <c r="E10" s="5">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="F10" s="5">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="G10" s="5">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="H10" s="5">
-        <v>512</v>
+        <v>210</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>2000</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
+      <c r="A11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="5">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="F11" s="5">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="G11" s="5">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="H11" s="5">
-        <v>512</v>
+        <v>110</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5">
-        <v>256</v>
-      </c>
-      <c r="F12" s="5">
-        <v>512</v>
-      </c>
-      <c r="G12" s="5">
-        <v>256</v>
-      </c>
-      <c r="H12" s="5">
-        <v>512</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="0"/>
-        <v>2560</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="1"/>
-        <v>2560</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>256</v>
-      </c>
-      <c r="F13" s="5">
-        <v>512</v>
-      </c>
-      <c r="G13" s="5">
-        <v>256</v>
-      </c>
-      <c r="H13" s="5">
-        <v>512</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="0"/>
-        <v>2560</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="1"/>
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14" s="7">
-        <f>SUM(I3:I13)</f>
-        <v>28160</v>
-      </c>
-      <c r="J14" s="7">
-        <f>SUM(J3:J13)</f>
-        <v>28160</v>
+      <c r="I13" s="7">
+        <f>SUM(I3:I11)</f>
+        <v>20750</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUM(J3:J11)</f>
+        <v>8950</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B13">
-    <sortCondition ref="B3:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B11">
+    <sortCondition ref="B3:B11"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="I1:J1"/>

--- a/utils/K8s resource.xlsx
+++ b/utils/K8s resource.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Workspaces\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69FF7F8-2467-4FD4-A219-7F6F646B9087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C719ADC-1CB5-4152-BDE2-0AAD80A2537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{218EBCD2-F002-495E-B742-B66DF84E7447}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{218EBCD2-F002-495E-B742-B66DF84E7447}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2x" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
     <t>No.</t>
   </si>
@@ -508,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8491E5C2-9CEF-4549-8C54-179312535692}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,16 +586,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="5">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F3" s="5">
         <v>1000</v>
       </c>
       <c r="G3" s="5">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H3" s="5">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="I3" s="6">
         <f>F3*D3</f>
@@ -602,7 +603,7 @@
       </c>
       <c r="J3" s="6">
         <f>H3*D3</f>
-        <v>2050</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -619,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="5">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="F4" s="5">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G4" s="5">
         <v>100</v>
@@ -632,7 +633,7 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I11" si="0">F4*D4</f>
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" ref="J4:J11" si="1">H4*D4</f>
@@ -687,20 +688,20 @@
         <v>5</v>
       </c>
       <c r="E6" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F6" s="5">
+        <v>400</v>
+      </c>
+      <c r="G6" s="5">
         <v>100</v>
-      </c>
-      <c r="G6" s="5">
-        <v>90</v>
       </c>
       <c r="H6" s="5">
         <v>150</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
@@ -721,24 +722,24 @@
         <v>5</v>
       </c>
       <c r="E7" s="5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F7" s="5">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G7" s="5">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="H7" s="5">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,10 +762,10 @@
         <v>1000</v>
       </c>
       <c r="G8" s="5">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H8" s="5">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
@@ -772,7 +773,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -789,24 +790,24 @@
         <v>5</v>
       </c>
       <c r="E9" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F9" s="5">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G9" s="5">
         <v>150</v>
       </c>
       <c r="H9" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -823,24 +824,24 @@
         <v>5</v>
       </c>
       <c r="E10" s="5">
+        <v>300</v>
+      </c>
+      <c r="F10" s="5">
+        <v>700</v>
+      </c>
+      <c r="G10" s="5">
         <v>200</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H10" s="5">
         <v>400</v>
-      </c>
-      <c r="G10" s="5">
-        <v>120</v>
-      </c>
-      <c r="H10" s="5">
-        <v>210</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -857,24 +858,24 @@
         <v>5</v>
       </c>
       <c r="E11" s="5">
+        <v>150</v>
+      </c>
+      <c r="F11" s="5">
+        <v>300</v>
+      </c>
+      <c r="G11" s="5">
         <v>100</v>
       </c>
-      <c r="F11" s="5">
+      <c r="H11" s="5">
         <v>200</v>
-      </c>
-      <c r="G11" s="5">
-        <v>85</v>
-      </c>
-      <c r="H11" s="5">
-        <v>110</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -892,11 +893,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" s="7">
         <f>SUM(I3:I11)</f>
-        <v>20750</v>
+        <v>28500</v>
       </c>
       <c r="J13" s="7">
         <f>SUM(J3:J11)</f>
-        <v>8950</v>
+        <v>12500</v>
       </c>
     </row>
   </sheetData>
@@ -915,4 +916,454 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8903711-B1F1-4BB0-AE45-2B7EDC1EAF09}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10"/>
+      <c r="I1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <f>Sheet1!E3*2</f>
+        <v>1400</v>
+      </c>
+      <c r="F3" s="5">
+        <f>Sheet1!F3*2</f>
+        <v>2000</v>
+      </c>
+      <c r="G3" s="5">
+        <f>Sheet1!G3*2</f>
+        <v>600</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Sheet1!H3*2</f>
+        <v>1000</v>
+      </c>
+      <c r="I3" s="6">
+        <f>F3*D3</f>
+        <v>6000</v>
+      </c>
+      <c r="J3" s="6">
+        <f>H3*D3</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <f>Sheet1!E4*2</f>
+        <v>400</v>
+      </c>
+      <c r="F4" s="5">
+        <f>Sheet1!F4*2</f>
+        <v>800</v>
+      </c>
+      <c r="G4" s="5">
+        <f>Sheet1!G4*2</f>
+        <v>200</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Sheet1!H4*2</f>
+        <v>300</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" ref="I4:I11" si="0">F4*D4</f>
+        <v>2400</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J11" si="1">H4*D4</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <f>Sheet1!E5*2</f>
+        <v>1000</v>
+      </c>
+      <c r="F5" s="5">
+        <f>Sheet1!F5*2</f>
+        <v>2000</v>
+      </c>
+      <c r="G5" s="5">
+        <f>Sheet1!G5*2</f>
+        <v>300</v>
+      </c>
+      <c r="H5" s="5">
+        <f>Sheet1!H5*2</f>
+        <v>400</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <f>Sheet1!E6*2</f>
+        <v>400</v>
+      </c>
+      <c r="F6" s="5">
+        <f>Sheet1!F6*2</f>
+        <v>800</v>
+      </c>
+      <c r="G6" s="5">
+        <f>Sheet1!G6*2</f>
+        <v>200</v>
+      </c>
+      <c r="H6" s="5">
+        <f>Sheet1!H6*2</f>
+        <v>300</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f>Sheet1!E7*2</f>
+        <v>500</v>
+      </c>
+      <c r="F7" s="5">
+        <f>Sheet1!F7*2</f>
+        <v>1000</v>
+      </c>
+      <c r="G7" s="5">
+        <f>Sheet1!G7*2</f>
+        <v>300</v>
+      </c>
+      <c r="H7" s="5">
+        <f>Sheet1!H7*2</f>
+        <v>600</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <f>Sheet1!E8*2</f>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="5">
+        <f>Sheet1!F8*2</f>
+        <v>2000</v>
+      </c>
+      <c r="G8" s="5">
+        <f>Sheet1!G8*2</f>
+        <v>300</v>
+      </c>
+      <c r="H8" s="5">
+        <f>Sheet1!H8*2</f>
+        <v>600</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <f>Sheet1!E9*2</f>
+        <v>400</v>
+      </c>
+      <c r="F9" s="5">
+        <f>Sheet1!F9*2</f>
+        <v>800</v>
+      </c>
+      <c r="G9" s="5">
+        <f>Sheet1!G9*2</f>
+        <v>300</v>
+      </c>
+      <c r="H9" s="5">
+        <f>Sheet1!H9*2</f>
+        <v>600</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <f>Sheet1!E10*2</f>
+        <v>600</v>
+      </c>
+      <c r="F10" s="5">
+        <f>Sheet1!F10*2</f>
+        <v>1400</v>
+      </c>
+      <c r="G10" s="5">
+        <f>Sheet1!G10*2</f>
+        <v>400</v>
+      </c>
+      <c r="H10" s="5">
+        <f>Sheet1!H10*2</f>
+        <v>800</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>4200</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <f>Sheet1!E11*2</f>
+        <v>300</v>
+      </c>
+      <c r="F11" s="5">
+        <f>Sheet1!F11*2</f>
+        <v>600</v>
+      </c>
+      <c r="G11" s="5">
+        <f>Sheet1!G11*2</f>
+        <v>200</v>
+      </c>
+      <c r="H11" s="5">
+        <f>Sheet1!H11*2</f>
+        <v>400</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7">
+        <f>SUM(I3:I11)</f>
+        <v>34200</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUM(J3:J11)</f>
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>